--- a/00_additional_data/COS_leaf_area.xlsx
+++ b/00_additional_data/COS_leaf_area.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Aerodyne-laser-chamber-fluxes\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\python\_rafat_laser\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="2" r:id="rId1"/>
+    <sheet name="rafat" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dan1</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dan1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starting date </t>
+  </si>
+  <si>
+    <t>Tree no.</t>
+  </si>
+  <si>
+    <t>chamber no.</t>
+  </si>
+  <si>
+    <t>Group age</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total amount of needles</t>
+  </si>
+  <si>
+    <t>Average length per group age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weighted average</t>
+  </si>
   <si>
     <t>la</t>
   </si>
@@ -45,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +119,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -74,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,12 +183,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -124,6 +246,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,11 +544,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14">
+        <f>SUM(D2:D4)</f>
+        <v>156</v>
+      </c>
+      <c r="G2" s="14">
+        <f>(D3*E3+D4*E4)/SUM(D2:D4)</f>
+        <v>8.6358974358974354</v>
+      </c>
+      <c r="H2" s="14">
+        <f>(((PI()*0.00085*G2/100)+(0.00085*G2/100*2))*F2/2)*2</f>
+        <v>5.8877405794787438E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="6">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="6">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="7">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SUM(D5:D7)</f>
+        <v>116</v>
+      </c>
+      <c r="G5" s="14">
+        <f>(D5*E5+D6*E6+D7*E7)/SUM(D5:D7)</f>
+        <v>6.8241379310344836</v>
+      </c>
+      <c r="H5" s="14">
+        <f>(((PI()*0.00085*G5/100)+(0.00085*G5/100*2))*F5/2)*2</f>
+        <v>3.4595720328944285E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="7">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -417,44 +745,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>156</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>8.6358974358974354</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>5.8877405794787438E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>44028</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>116</v>
       </c>
       <c r="C3">
@@ -463,8 +791,42 @@
       <c r="D3">
         <v>3.4595720328944285E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>44028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.0700847445816889E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8">
+        <v>364</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7.6963929143513146E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44258</v>
       </c>
     </row>
   </sheetData>

--- a/00_additional_data/COS_leaf_area.xlsx
+++ b/00_additional_data/COS_leaf_area.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\python\_rafat_laser\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Aerodyne-laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180"/>
   </bookViews>
   <sheets>
-    <sheet name="rafat" sheetId="1" r:id="rId1"/>
-    <sheet name="summary" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,69 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Dan1</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dan1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starting date </t>
-  </si>
-  <si>
-    <t>Tree no.</t>
-  </si>
-  <si>
-    <t>chamber no.</t>
-  </si>
-  <si>
-    <t>Group age</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total amount of needles</t>
-  </si>
-  <si>
-    <t>Average length per group age</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weighted average</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>la</t>
   </si>
@@ -101,13 +39,24 @@
   </si>
   <si>
     <t>weighed_avg_length</t>
+  </si>
+  <si>
+    <t>Proj-la</t>
+  </si>
+  <si>
+    <t>diameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,19 +68,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="David"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -149,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,74 +132,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,292 +442,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
-    <col min="6" max="6" width="11.15625" customWidth="1"/>
-    <col min="7" max="7" width="12.68359375" customWidth="1"/>
+    <col min="3" max="3" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.734375" customWidth="1"/>
+    <col min="7" max="7" width="9.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="4">
+        <v>116</v>
+      </c>
       <c r="C2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="14">
-        <f>SUM(D2:D4)</f>
+        <v>6.8241379310344836</v>
+      </c>
+      <c r="D2" s="6">
+        <f>((PI()*E2*C2/100)+(E2*C2/100*2))*B2*2</f>
+        <v>8.1401694891633625E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44050</v>
+      </c>
+      <c r="G2" s="6">
+        <f>D2/PI()</f>
+        <v>2.5910964236123556E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
         <v>156</v>
       </c>
-      <c r="G2" s="14">
-        <f>(D3*E3+D4*E4)/SUM(D2:D4)</f>
-        <v>8.6358974358974354</v>
-      </c>
-      <c r="H2" s="14">
-        <f>(((PI()*0.00085*G2/100)+(0.00085*G2/100*2))*F2/2)*2</f>
-        <v>5.8877405794787438E-2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>44016</v>
+      <c r="C3" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D5" si="0">((PI()*E3*C3/100)+(E3*C3/100*2))*B3*2</f>
+        <v>7.7257159885427931E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44050</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3" si="1">D3/PI()</f>
+        <v>2.4591717770013483E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="6">
-        <v>140</v>
-      </c>
-      <c r="E3" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.8241379310344836</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>4.0700847445816812E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44257</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G5" si="2">D4/PI()</f>
+        <v>1.2955482118061778E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
         <v>16</v>
       </c>
-      <c r="E4" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="4">
+        <v>156</v>
+      </c>
       <c r="C5" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="7">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="F5" s="14">
-        <f>SUM(D5:D7)</f>
-        <v>116</v>
-      </c>
-      <c r="G5" s="14">
-        <f>(D5*E5+D6*E6+D7*E7)/SUM(D5:D7)</f>
-        <v>6.8241379310344836</v>
-      </c>
-      <c r="H5" s="14">
-        <f>(((PI()*0.00085*G5/100)+(0.00085*G5/100*2))*F5/2)*2</f>
-        <v>3.4595720328944285E-2</v>
-      </c>
-      <c r="I5" s="13">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="7">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="7">
-        <v>56</v>
-      </c>
-      <c r="E7" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="5" max="5" width="14.734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
-        <v>156</v>
-      </c>
-      <c r="C2" s="8">
-        <v>8.6358974358974354</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5.8877405794787438E-2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8">
-        <v>116</v>
-      </c>
-      <c r="C3">
-        <v>6.8241379310344836</v>
-      </c>
-      <c r="D3">
-        <v>3.4595720328944285E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
-        <v>156</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4.0700847445816889E-2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8">
-        <v>364</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>7.6963929143513146E-2</v>
+        <v>8.6</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>7.7257159885427931E-2</v>
       </c>
       <c r="E5" s="9">
-        <v>44258</v>
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44257</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4591717770013483E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>